--- a/src/Chapter-6/案例05 批量统计工作簿的最大、最小值/产品销售统计表/手提包.xlsx
+++ b/src/Chapter-6/案例05 批量统计工作簿的最大、最小值/产品销售统计表/手提包.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\example\05\批量升序排序一个工作簿中的全部工作表\产品销售统计表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-6\案例05 批量统计工作簿的最大、最小值\产品销售统计表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E73A92-1CED-4C71-9ABA-05F5EE64BE5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB7A2C3-B834-4492-978A-83BBC82D235E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8850" windowHeight="7620" xr2:uid="{DF6CCF79-1F71-4FCF-95A8-96D24AB69591}"/>
+    <workbookView xWindow="3105" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{DF6CCF79-1F71-4FCF-95A8-96D24AB69591}"/>
   </bookViews>
   <sheets>
     <sheet name="手提包" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>单号</t>
   </si>
@@ -55,6 +55,14 @@
   </si>
   <si>
     <t>销售数量（个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大销售利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小销售利润</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4AF26-B5F1-462D-BDCF-40CB7B54653C}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -431,13 +439,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="8" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +475,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1">
+        <v>98790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6123005</v>
       </c>
@@ -488,8 +507,14 @@
       <c r="H2" s="1">
         <v>28860</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1">
+        <v>27750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>6123016</v>
       </c>
@@ -515,7 +540,7 @@
         <v>57720</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6123019</v>
       </c>
@@ -541,7 +566,7 @@
         <v>49950</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6123023</v>
       </c>
@@ -567,7 +592,7 @@
         <v>98790</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6123029</v>
       </c>
@@ -593,7 +618,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6123044</v>
       </c>
@@ -619,7 +644,7 @@
         <v>61050</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6123048</v>
       </c>
@@ -645,7 +670,7 @@
         <v>27750</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6123050</v>
       </c>
